--- a/Code/Results/Cases/Case_5_102/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_102/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.10810942818463</v>
+        <v>12.54690179691499</v>
       </c>
       <c r="C2">
-        <v>15.65774176947659</v>
+        <v>9.428555705286524</v>
       </c>
       <c r="D2">
-        <v>4.131963038922075</v>
+        <v>3.966546793897766</v>
       </c>
       <c r="E2">
-        <v>11.23181791072824</v>
+        <v>11.535794073821</v>
       </c>
       <c r="F2">
-        <v>16.67851513859696</v>
+        <v>20.30730892550126</v>
       </c>
       <c r="I2">
-        <v>9.913673511658464</v>
+        <v>17.13428314545414</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -448,13 +448,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>18.35043457761502</v>
+        <v>14.54929968178754</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>12.60330786782538</v>
+        <v>18.06989336467801</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,22 +462,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.77417284293666</v>
+        <v>11.86650553936523</v>
       </c>
       <c r="C3">
-        <v>14.72423588421722</v>
+        <v>8.92275859314053</v>
       </c>
       <c r="D3">
-        <v>3.978301520293565</v>
+        <v>3.910455146537271</v>
       </c>
       <c r="E3">
-        <v>10.66664478301427</v>
+        <v>11.47162278415189</v>
       </c>
       <c r="F3">
-        <v>16.11351935403333</v>
+        <v>20.31224683771581</v>
       </c>
       <c r="I3">
-        <v>10.20463819176851</v>
+        <v>17.27335154175147</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -489,13 +489,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>17.16929098596146</v>
+        <v>14.22167374363967</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>12.42822451093719</v>
+        <v>18.14189883606086</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.90879373688589</v>
+        <v>11.4279746410797</v>
       </c>
       <c r="C4">
-        <v>14.12066116200025</v>
+        <v>8.595601600096947</v>
       </c>
       <c r="D4">
-        <v>3.88072870163309</v>
+        <v>3.875358465795599</v>
       </c>
       <c r="E4">
-        <v>10.32198663829294</v>
+        <v>11.43735208872515</v>
       </c>
       <c r="F4">
-        <v>15.781922717024</v>
+        <v>20.32376456729344</v>
       </c>
       <c r="I4">
-        <v>10.39837786724415</v>
+        <v>17.36395814447198</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -530,13 +530,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>16.40513103286958</v>
+        <v>14.01934933536986</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>12.3401660267055</v>
+        <v>18.19256791516396</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,22 +544,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.54449563470227</v>
+        <v>11.24419623374692</v>
       </c>
       <c r="C5">
-        <v>13.86710942693</v>
+        <v>8.458185047238223</v>
       </c>
       <c r="D5">
-        <v>3.840194381623677</v>
+        <v>3.860901676604927</v>
       </c>
       <c r="E5">
-        <v>10.18231252723447</v>
+        <v>11.42468621781445</v>
       </c>
       <c r="F5">
-        <v>15.65079046729624</v>
+        <v>20.33058498205356</v>
       </c>
       <c r="I5">
-        <v>10.48086097446046</v>
+        <v>17.40219134464362</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -571,13 +571,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>16.08390733206479</v>
+        <v>13.93672711513706</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>12.3090159094078</v>
+        <v>18.21482996576233</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,22 +585,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.48330108895965</v>
+        <v>11.21337845651533</v>
       </c>
       <c r="C6">
-        <v>13.82455096157783</v>
+        <v>8.435122191506844</v>
       </c>
       <c r="D6">
-        <v>3.833418236483373</v>
+        <v>3.858492108761238</v>
       </c>
       <c r="E6">
-        <v>10.15917251417764</v>
+        <v>11.42266178314034</v>
       </c>
       <c r="F6">
-        <v>15.6292614221584</v>
+        <v>20.33184571673693</v>
       </c>
       <c r="I6">
-        <v>10.494763592429</v>
+        <v>17.40861902445322</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -612,13 +612,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>16.02997449690726</v>
+        <v>13.92300082452816</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>12.30412445930775</v>
+        <v>18.21862374933642</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,22 +626,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.90392783498174</v>
+        <v>11.42551646631564</v>
       </c>
       <c r="C7">
-        <v>14.11727231887616</v>
+        <v>8.593764830893246</v>
       </c>
       <c r="D7">
-        <v>3.880185115874122</v>
+        <v>3.87516410856585</v>
       </c>
       <c r="E7">
-        <v>10.32009953795303</v>
+        <v>11.43717599934872</v>
       </c>
       <c r="F7">
-        <v>15.78013785799951</v>
+        <v>20.32384794913849</v>
       </c>
       <c r="I7">
-        <v>10.39947628051678</v>
+        <v>17.36446846790269</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -653,13 +653,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>16.40083869961961</v>
+        <v>14.0182356058303</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>12.33972697618033</v>
+        <v>18.1928616272523</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,22 +667,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.65778108203388</v>
+        <v>12.31669087702584</v>
       </c>
       <c r="C8">
-        <v>15.34220340294528</v>
+        <v>9.257641844380462</v>
       </c>
       <c r="D8">
-        <v>4.079671024471073</v>
+        <v>3.947348735587962</v>
       </c>
       <c r="E8">
-        <v>11.03655799778299</v>
+        <v>11.5126095161764</v>
       </c>
       <c r="F8">
-        <v>16.48061648199447</v>
+        <v>20.30724673972433</v>
       </c>
       <c r="I8">
-        <v>10.01069929078276</v>
+        <v>17.18114978252272</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -694,13 +694,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>17.95123264245539</v>
+        <v>14.43664501186319</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>12.53881741997878</v>
+        <v>18.09337485398054</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,22 +708,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.73023713761993</v>
+        <v>13.89437944252291</v>
       </c>
       <c r="C9">
-        <v>17.50183238042185</v>
+        <v>10.42524318532942</v>
       </c>
       <c r="D9">
-        <v>4.4438564588866</v>
+        <v>4.083254698881348</v>
       </c>
       <c r="E9">
-        <v>12.45370239800856</v>
+        <v>11.70068904893028</v>
       </c>
       <c r="F9">
-        <v>17.96911730191701</v>
+        <v>20.34223137451639</v>
       </c>
       <c r="I9">
-        <v>9.381665171550932</v>
+        <v>16.86315111280821</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -735,13 +735,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>20.68486527125508</v>
+        <v>15.24294947752668</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>13.0892511955774</v>
+        <v>17.94993617654536</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,22 +749,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.76613886865185</v>
+        <v>14.94460345886194</v>
       </c>
       <c r="C10">
-        <v>18.94031517195352</v>
+        <v>11.19862334985475</v>
       </c>
       <c r="D10">
-        <v>4.693380315709715</v>
+        <v>4.179094439902826</v>
       </c>
       <c r="E10">
-        <v>13.69620519509078</v>
+        <v>11.86242023282502</v>
       </c>
       <c r="F10">
-        <v>19.12420785904632</v>
+        <v>20.40923989164077</v>
       </c>
       <c r="I10">
-        <v>9.022902510032637</v>
+        <v>16.65493346427622</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -776,13 +776,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>22.51034452115408</v>
+        <v>15.82037789357161</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>13.59744549480843</v>
+        <v>17.87658233447664</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,22 +790,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.64495874625538</v>
+        <v>15.39796299299143</v>
       </c>
       <c r="C11">
-        <v>19.56275588878129</v>
+        <v>11.53175679950014</v>
       </c>
       <c r="D11">
-        <v>4.802728557468507</v>
+        <v>4.221710528619226</v>
       </c>
       <c r="E11">
-        <v>14.27325215456981</v>
+        <v>11.94085970524838</v>
       </c>
       <c r="F11">
-        <v>19.66148826090219</v>
+        <v>20.44867126401439</v>
       </c>
       <c r="I11">
-        <v>8.887971901263695</v>
+        <v>16.56575881297928</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -817,13 +817,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>23.30219271121677</v>
+        <v>16.07859846550222</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>13.85209332700048</v>
+        <v>17.85027171174593</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,22 +831,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.97100992615926</v>
+        <v>15.56608437222395</v>
       </c>
       <c r="C12">
-        <v>19.79389795914783</v>
+        <v>11.65519864166581</v>
       </c>
       <c r="D12">
-        <v>4.843521645009067</v>
+        <v>4.237697966628862</v>
       </c>
       <c r="E12">
-        <v>14.48948814909576</v>
+        <v>11.97123840520256</v>
       </c>
       <c r="F12">
-        <v>19.86653986921117</v>
+        <v>20.46488404677566</v>
       </c>
       <c r="I12">
-        <v>8.841501023854175</v>
+        <v>16.53279100374435</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -858,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>23.59660261513618</v>
+        <v>16.17564655711247</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>13.95194914608669</v>
+        <v>17.84133124336466</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,22 +872,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.90108753619568</v>
+        <v>15.53003523569674</v>
       </c>
       <c r="C13">
-        <v>19.74431973369796</v>
+        <v>11.62873398901254</v>
       </c>
       <c r="D13">
-        <v>4.834763686798825</v>
+        <v>4.234261613931348</v>
       </c>
       <c r="E13">
-        <v>14.44301709744643</v>
+        <v>11.96466618142935</v>
       </c>
       <c r="F13">
-        <v>19.82230878391216</v>
+        <v>20.46133548112097</v>
       </c>
       <c r="I13">
-        <v>8.851294192609346</v>
+        <v>16.539855543961</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -899,13 +899,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>23.53343665634236</v>
+        <v>16.15477960181212</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>13.93029031978734</v>
+        <v>17.8432111268336</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,22 +913,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.67191781954513</v>
+        <v>15.41186594663047</v>
       </c>
       <c r="C14">
-        <v>19.5818633263177</v>
+        <v>11.5419668245271</v>
       </c>
       <c r="D14">
-        <v>4.806097030437224</v>
+        <v>4.223028888942523</v>
       </c>
       <c r="E14">
-        <v>14.29108693839816</v>
+        <v>11.94334559077706</v>
       </c>
       <c r="F14">
-        <v>19.67832651933697</v>
+        <v>20.44997946887271</v>
       </c>
       <c r="I14">
-        <v>8.884052633514905</v>
+        <v>16.56303046417892</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -940,13 +940,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>23.32652251708005</v>
+        <v>16.08659790346296</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>13.86023960225372</v>
+        <v>17.84951563333689</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,22 +954,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.53066926718649</v>
+        <v>15.33901949575852</v>
       </c>
       <c r="C15">
-        <v>19.48176092553249</v>
+        <v>11.48846613575926</v>
       </c>
       <c r="D15">
-        <v>4.788457395837201</v>
+        <v>4.216128676032812</v>
       </c>
       <c r="E15">
-        <v>14.19773241993025</v>
+        <v>11.93037330717211</v>
       </c>
       <c r="F15">
-        <v>19.59033828887509</v>
+        <v>20.44319018936567</v>
       </c>
       <c r="I15">
-        <v>8.904737906389599</v>
+        <v>16.57733015036195</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -981,13 +981,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>23.1990756041999</v>
+        <v>16.04473632765114</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>13.81777905043592</v>
+        <v>17.85351074405762</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,22 +995,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.70775912068761</v>
+        <v>14.91448010943391</v>
       </c>
       <c r="C16">
-        <v>18.89899689677617</v>
+        <v>11.17647434534285</v>
       </c>
       <c r="D16">
-        <v>4.686148938920639</v>
+        <v>4.176288827940787</v>
       </c>
       <c r="E16">
-        <v>13.65816789880225</v>
+        <v>11.8573899165458</v>
       </c>
       <c r="F16">
-        <v>19.08932368554774</v>
+        <v>20.40684258743209</v>
       </c>
       <c r="I16">
-        <v>9.03233593840627</v>
+        <v>16.66087309395177</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1022,13 +1022,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>22.45782757933044</v>
+        <v>15.80340475758275</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>13.58128056719807</v>
+        <v>17.87844451041102</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,22 +1036,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.19085419643761</v>
+        <v>14.64775331684458</v>
       </c>
       <c r="C17">
-        <v>18.53332876835956</v>
+        <v>10.98027504190365</v>
       </c>
       <c r="D17">
-        <v>4.622307458773113</v>
+        <v>4.15159023928968</v>
       </c>
       <c r="E17">
-        <v>13.32296866521313</v>
+        <v>11.81384674044089</v>
       </c>
       <c r="F17">
-        <v>18.78491316240779</v>
+        <v>20.38683313349658</v>
       </c>
       <c r="I17">
-        <v>9.11823405470267</v>
+        <v>16.71354643489199</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1063,13 +1063,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>21.99328500348299</v>
+        <v>15.6541458291898</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>13.44224762814061</v>
+        <v>17.89555415004024</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,22 +1077,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.88908544348348</v>
+        <v>14.49204526988545</v>
       </c>
       <c r="C18">
-        <v>18.31999807018399</v>
+        <v>10.86566894836814</v>
       </c>
       <c r="D18">
-        <v>4.585196580792785</v>
+        <v>4.137292365557045</v>
       </c>
       <c r="E18">
-        <v>13.12859248916443</v>
+        <v>11.7892615742552</v>
       </c>
       <c r="F18">
-        <v>18.61094204284561</v>
+        <v>20.3761670396912</v>
       </c>
       <c r="I18">
-        <v>9.170264435675918</v>
+        <v>16.74436441596619</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1104,13 +1104,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>21.72245515822161</v>
+        <v>15.56788195363548</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>13.36448628121211</v>
+        <v>17.90605910556112</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,22 +1118,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.786144076749</v>
+        <v>14.43893289096704</v>
       </c>
       <c r="C19">
-        <v>18.24725060876062</v>
+        <v>10.82656422903277</v>
       </c>
       <c r="D19">
-        <v>4.572564883796352</v>
+        <v>4.132435853305035</v>
       </c>
       <c r="E19">
-        <v>13.06250566828821</v>
+        <v>11.78101713145296</v>
       </c>
       <c r="F19">
-        <v>18.55223400182552</v>
+        <v>20.37270057656994</v>
       </c>
       <c r="I19">
-        <v>9.188315614686385</v>
+        <v>16.75488835209151</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1145,13 +1145,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>21.63012923825058</v>
+        <v>15.53860633787331</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>13.3385348631854</v>
+        <v>17.90972968774737</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,22 +1159,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.24634061790057</v>
+        <v>14.67638463013784</v>
       </c>
       <c r="C20">
-        <v>18.57256590998188</v>
+        <v>11.00134286149211</v>
       </c>
       <c r="D20">
-        <v>4.629144084012736</v>
+        <v>4.154229025037042</v>
       </c>
       <c r="E20">
-        <v>13.35881376167796</v>
+        <v>11.81843457838207</v>
       </c>
       <c r="F20">
-        <v>18.81720334084067</v>
+        <v>20.38887598053883</v>
       </c>
       <c r="I20">
-        <v>9.108814605566154</v>
+        <v>16.70788525317048</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1186,13 +1186,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>22.04311209999508</v>
+        <v>15.67007825476686</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>13.45681912413955</v>
+        <v>17.89366402545276</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,22 +1200,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.73941284018418</v>
+        <v>15.44667197253522</v>
       </c>
       <c r="C21">
-        <v>19.62970425890482</v>
+        <v>11.56752610205544</v>
       </c>
       <c r="D21">
-        <v>4.814533918560753</v>
+        <v>4.226332363879147</v>
       </c>
       <c r="E21">
-        <v>14.3357733079164</v>
+        <v>11.94958984030691</v>
       </c>
       <c r="F21">
-        <v>19.72057501579506</v>
+        <v>20.4532802982669</v>
       </c>
       <c r="I21">
-        <v>8.874300448061051</v>
+        <v>16.5562016696355</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1227,13 +1227,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>23.38744515554816</v>
+        <v>16.10664516828393</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>13.88072185264408</v>
+        <v>17.84763602965585</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,22 +1241,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.67597962075948</v>
+        <v>15.92935687388675</v>
       </c>
       <c r="C22">
-        <v>20.29403090076039</v>
+        <v>11.92176558412559</v>
       </c>
       <c r="D22">
-        <v>4.932108649078865</v>
+        <v>4.272575763138382</v>
       </c>
       <c r="E22">
-        <v>14.96105869809662</v>
+        <v>12.03923133753445</v>
       </c>
       <c r="F22">
-        <v>20.32024912436117</v>
+        <v>20.50283434154344</v>
       </c>
       <c r="I22">
-        <v>8.748284599299962</v>
+        <v>16.4617364704722</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1268,13 +1268,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>24.23435683102262</v>
+        <v>16.38764722720544</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>14.17775461698741</v>
+        <v>17.82351885165479</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,22 +1282,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.1796828682334</v>
+        <v>15.67365003035578</v>
       </c>
       <c r="C23">
-        <v>19.94188657227436</v>
+        <v>11.73415234308487</v>
       </c>
       <c r="D23">
-        <v>4.86968963984724</v>
+        <v>4.247978253241791</v>
       </c>
       <c r="E23">
-        <v>14.6284962343609</v>
+        <v>11.99103751452025</v>
       </c>
       <c r="F23">
-        <v>19.99937147581137</v>
+        <v>20.47570619317558</v>
       </c>
       <c r="I23">
-        <v>8.812849076859338</v>
+        <v>16.51172595601765</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1309,13 +1309,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>23.78520737338339</v>
+        <v>16.23809566929809</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>14.01737930347137</v>
+        <v>17.83584245701244</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,22 +1323,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.22126951852536</v>
+        <v>14.66344777067229</v>
       </c>
       <c r="C24">
-        <v>18.55483646617674</v>
+        <v>10.99182373166206</v>
       </c>
       <c r="D24">
-        <v>4.626054513926691</v>
+        <v>4.153036335554735</v>
       </c>
       <c r="E24">
-        <v>13.34261339053183</v>
+        <v>11.81635901832842</v>
       </c>
       <c r="F24">
-        <v>18.80260170801009</v>
+        <v>20.38794979985137</v>
       </c>
       <c r="I24">
-        <v>9.113064937193748</v>
+        <v>16.71044300595869</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1350,13 +1350,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>22.02059698288348</v>
+        <v>15.66287660872992</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>13.45022459404556</v>
+        <v>17.89451646932068</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,22 +1364,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.93814918451883</v>
+        <v>13.48638658319317</v>
       </c>
       <c r="C25">
-        <v>16.94365099909841</v>
+        <v>10.12405879918552</v>
       </c>
       <c r="D25">
-        <v>4.348405611318828</v>
+        <v>4.047153096413001</v>
       </c>
       <c r="E25">
-        <v>12.06981148120321</v>
+        <v>11.64559573933182</v>
       </c>
       <c r="F25">
-        <v>17.55505430894891</v>
+        <v>20.32551366280235</v>
       </c>
       <c r="I25">
-        <v>9.535466320973379</v>
+        <v>16.94472447365861</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>19.97780554077212</v>
+        <v>15.02701620498745</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>12.92248679355982</v>
+        <v>17.98315233507081</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_102/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_102/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.54690179691499</v>
+        <v>21.10810942818463</v>
       </c>
       <c r="C2">
-        <v>9.428555705286524</v>
+        <v>15.6577417694766</v>
       </c>
       <c r="D2">
-        <v>3.966546793897766</v>
+        <v>4.131963038922075</v>
       </c>
       <c r="E2">
-        <v>11.535794073821</v>
+        <v>11.23181791072824</v>
       </c>
       <c r="F2">
-        <v>20.30730892550126</v>
+        <v>16.67851513859696</v>
       </c>
       <c r="I2">
-        <v>17.13428314545414</v>
+        <v>9.913673511658466</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -448,13 +448,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>14.54929968178754</v>
+        <v>18.35043457761502</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>18.06989336467801</v>
+        <v>12.60330786782539</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,22 +462,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.86650553936523</v>
+        <v>19.77417284293664</v>
       </c>
       <c r="C3">
-        <v>8.92275859314053</v>
+        <v>14.72423588421713</v>
       </c>
       <c r="D3">
-        <v>3.910455146537271</v>
+        <v>3.978301520293532</v>
       </c>
       <c r="E3">
-        <v>11.47162278415189</v>
+        <v>10.66664478301428</v>
       </c>
       <c r="F3">
-        <v>20.31224683771581</v>
+        <v>16.11351935403337</v>
       </c>
       <c r="I3">
-        <v>17.27335154175147</v>
+        <v>10.20463819176851</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -489,13 +489,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>14.22167374363967</v>
+        <v>17.16929098596144</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>18.14189883606086</v>
+        <v>12.42822451093721</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.4279746410797</v>
+        <v>18.90879373688587</v>
       </c>
       <c r="C4">
-        <v>8.595601600096947</v>
+        <v>14.12066116200019</v>
       </c>
       <c r="D4">
-        <v>3.875358465795599</v>
+        <v>3.880728701633134</v>
       </c>
       <c r="E4">
-        <v>11.43735208872515</v>
+        <v>10.32198663829291</v>
       </c>
       <c r="F4">
-        <v>20.32376456729344</v>
+        <v>15.78192271702405</v>
       </c>
       <c r="I4">
-        <v>17.36395814447198</v>
+        <v>10.3983778672442</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -530,13 +530,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>14.01934933536986</v>
+        <v>16.40513103286954</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>18.19256791516396</v>
+        <v>12.3401660267056</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,22 +544,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.24419623374692</v>
+        <v>18.54449563470224</v>
       </c>
       <c r="C5">
-        <v>8.458185047238223</v>
+        <v>13.86710942693007</v>
       </c>
       <c r="D5">
-        <v>3.860901676604927</v>
+        <v>3.840194381623729</v>
       </c>
       <c r="E5">
-        <v>11.42468621781445</v>
+        <v>10.18231252723443</v>
       </c>
       <c r="F5">
-        <v>20.33058498205356</v>
+        <v>15.65079046729622</v>
       </c>
       <c r="I5">
-        <v>17.40219134464362</v>
+        <v>10.48086097446048</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -571,13 +571,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>13.93672711513706</v>
+        <v>16.08390733206481</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>18.21482996576233</v>
+        <v>12.30901590940783</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,22 +585,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.21337845651533</v>
+        <v>18.48330108895966</v>
       </c>
       <c r="C6">
-        <v>8.435122191506844</v>
+        <v>13.82455096157765</v>
       </c>
       <c r="D6">
-        <v>3.858492108761238</v>
+        <v>3.833418236483425</v>
       </c>
       <c r="E6">
-        <v>11.42266178314034</v>
+        <v>10.15917251417766</v>
       </c>
       <c r="F6">
-        <v>20.33184571673693</v>
+        <v>15.62926142215839</v>
       </c>
       <c r="I6">
-        <v>17.40861902445322</v>
+        <v>10.49476359242895</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -612,13 +612,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>13.92300082452816</v>
+        <v>16.02997449690727</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>18.21862374933642</v>
+        <v>12.30412445930776</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,22 +626,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.42551646631564</v>
+        <v>18.9039278349818</v>
       </c>
       <c r="C7">
-        <v>8.593764830893246</v>
+        <v>14.1172723188759</v>
       </c>
       <c r="D7">
-        <v>3.87516410856585</v>
+        <v>3.880185115874303</v>
       </c>
       <c r="E7">
-        <v>11.43717599934872</v>
+        <v>10.32009953795303</v>
       </c>
       <c r="F7">
-        <v>20.32384794913849</v>
+        <v>15.78013785799951</v>
       </c>
       <c r="I7">
-        <v>17.36446846790269</v>
+        <v>10.39947628051676</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -653,13 +653,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>14.0182356058303</v>
+        <v>16.40083869961962</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>18.1928616272523</v>
+        <v>12.3397269761804</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,22 +667,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.31669087702584</v>
+        <v>20.65778108203382</v>
       </c>
       <c r="C8">
-        <v>9.257641844380462</v>
+        <v>15.34220340294531</v>
       </c>
       <c r="D8">
-        <v>3.947348735587962</v>
+        <v>4.079671024471092</v>
       </c>
       <c r="E8">
-        <v>11.5126095161764</v>
+        <v>11.03655799778304</v>
       </c>
       <c r="F8">
-        <v>20.30724673972433</v>
+        <v>16.48061648199458</v>
       </c>
       <c r="I8">
-        <v>17.18114978252272</v>
+        <v>10.0106992907829</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -694,13 +694,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>14.43664501186319</v>
+        <v>17.95123264245536</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>18.09337485398054</v>
+        <v>12.53881741997889</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,22 +708,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.89437944252291</v>
+        <v>23.73023713761987</v>
       </c>
       <c r="C9">
-        <v>10.42524318532942</v>
+        <v>17.50183238042199</v>
       </c>
       <c r="D9">
-        <v>4.083254698881348</v>
+        <v>4.443856458886641</v>
       </c>
       <c r="E9">
-        <v>11.70068904893028</v>
+        <v>12.45370239800858</v>
       </c>
       <c r="F9">
-        <v>20.34223137451639</v>
+        <v>17.96911730191706</v>
       </c>
       <c r="I9">
-        <v>16.86315111280821</v>
+        <v>9.381665171551052</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -735,13 +735,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>15.24294947752668</v>
+        <v>20.68486527125506</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>17.94993617654536</v>
+        <v>13.08925119557745</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,22 +749,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.94460345886194</v>
+        <v>25.76613886865192</v>
       </c>
       <c r="C10">
-        <v>11.19862334985475</v>
+        <v>18.94031517195337</v>
       </c>
       <c r="D10">
-        <v>4.179094439902826</v>
+        <v>4.693380315709753</v>
       </c>
       <c r="E10">
-        <v>11.86242023282502</v>
+        <v>13.6962051950908</v>
       </c>
       <c r="F10">
-        <v>20.40923989164077</v>
+        <v>19.12420785904629</v>
       </c>
       <c r="I10">
-        <v>16.65493346427622</v>
+        <v>9.022902510032452</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -776,13 +776,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>15.82037789357161</v>
+        <v>22.51034452115409</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>17.87658233447664</v>
+        <v>13.59744549480837</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,22 +790,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.39796299299143</v>
+        <v>26.64495874625538</v>
       </c>
       <c r="C11">
-        <v>11.53175679950014</v>
+        <v>19.56275588878126</v>
       </c>
       <c r="D11">
-        <v>4.221710528619226</v>
+        <v>4.802728557468574</v>
       </c>
       <c r="E11">
-        <v>11.94085970524838</v>
+        <v>14.27325215456984</v>
       </c>
       <c r="F11">
-        <v>20.44867126401439</v>
+        <v>19.6614882609022</v>
       </c>
       <c r="I11">
-        <v>16.56575881297928</v>
+        <v>8.887971901263716</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -817,13 +817,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>16.07859846550222</v>
+        <v>23.30219271121677</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>17.85027171174593</v>
+        <v>13.8520933270005</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,22 +831,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.56608437222395</v>
+        <v>26.97100992615924</v>
       </c>
       <c r="C12">
-        <v>11.65519864166581</v>
+        <v>19.79389795914776</v>
       </c>
       <c r="D12">
-        <v>4.237697966628862</v>
+        <v>4.84352164500909</v>
       </c>
       <c r="E12">
-        <v>11.97123840520256</v>
+        <v>14.48948814909576</v>
       </c>
       <c r="F12">
-        <v>20.46488404677566</v>
+        <v>19.86653986921124</v>
       </c>
       <c r="I12">
-        <v>16.53279100374435</v>
+        <v>8.841501023854365</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -858,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>16.17564655711247</v>
+        <v>23.59660261513613</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>17.84133124336466</v>
+        <v>13.95194914608679</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,22 +872,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.53003523569674</v>
+        <v>26.90108753619576</v>
       </c>
       <c r="C13">
-        <v>11.62873398901254</v>
+        <v>19.74431973369799</v>
       </c>
       <c r="D13">
-        <v>4.234261613931348</v>
+        <v>4.834763686798825</v>
       </c>
       <c r="E13">
-        <v>11.96466618142935</v>
+        <v>14.44301709744645</v>
       </c>
       <c r="F13">
-        <v>20.46133548112097</v>
+        <v>19.82230878391215</v>
       </c>
       <c r="I13">
-        <v>16.539855543961</v>
+        <v>8.851294192609203</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -899,13 +899,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>16.15477960181212</v>
+        <v>23.53343665634243</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>17.8432111268336</v>
+        <v>13.93029031978726</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,22 +913,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.41186594663047</v>
+        <v>26.67191781954511</v>
       </c>
       <c r="C14">
-        <v>11.5419668245271</v>
+        <v>19.58186332631774</v>
       </c>
       <c r="D14">
-        <v>4.223028888942523</v>
+        <v>4.80609703043722</v>
       </c>
       <c r="E14">
-        <v>11.94334559077706</v>
+        <v>14.29108693839814</v>
       </c>
       <c r="F14">
-        <v>20.44997946887271</v>
+        <v>19.678326519337</v>
       </c>
       <c r="I14">
-        <v>16.56303046417892</v>
+        <v>8.884052633515003</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -940,13 +940,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>16.08659790346296</v>
+        <v>23.32652251708002</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>17.84951563333689</v>
+        <v>13.86023960225377</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,22 +954,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.33901949575852</v>
+        <v>26.53066926718653</v>
       </c>
       <c r="C15">
-        <v>11.48846613575926</v>
+        <v>19.48176092553244</v>
       </c>
       <c r="D15">
-        <v>4.216128676032812</v>
+        <v>4.788457395837266</v>
       </c>
       <c r="E15">
-        <v>11.93037330717211</v>
+        <v>14.19773241993028</v>
       </c>
       <c r="F15">
-        <v>20.44319018936567</v>
+        <v>19.59033828887502</v>
       </c>
       <c r="I15">
-        <v>16.57733015036195</v>
+        <v>8.904737906389482</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -981,13 +981,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>16.04473632765114</v>
+        <v>23.1990756041999</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>17.85351074405762</v>
+        <v>13.81777905043585</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,22 +995,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.91448010943391</v>
+        <v>25.70775912068764</v>
       </c>
       <c r="C16">
-        <v>11.17647434534285</v>
+        <v>18.89899689677626</v>
       </c>
       <c r="D16">
-        <v>4.176288827940787</v>
+        <v>4.686148938920557</v>
       </c>
       <c r="E16">
-        <v>11.8573899165458</v>
+        <v>13.65816789880221</v>
       </c>
       <c r="F16">
-        <v>20.40684258743209</v>
+        <v>19.08932368554779</v>
       </c>
       <c r="I16">
-        <v>16.66087309395177</v>
+        <v>9.032335938406231</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1022,13 +1022,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>15.80340475758275</v>
+        <v>22.45782757933044</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>17.87844451041102</v>
+        <v>13.58128056719806</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,22 +1036,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.64775331684458</v>
+        <v>25.19085419643764</v>
       </c>
       <c r="C17">
-        <v>10.98027504190365</v>
+        <v>18.53332876835966</v>
       </c>
       <c r="D17">
-        <v>4.15159023928968</v>
+        <v>4.622307458773267</v>
       </c>
       <c r="E17">
-        <v>11.81384674044089</v>
+        <v>13.32296866521311</v>
       </c>
       <c r="F17">
-        <v>20.38683313349658</v>
+        <v>18.7849131624077</v>
       </c>
       <c r="I17">
-        <v>16.71354643489199</v>
+        <v>9.118234054702601</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1063,13 +1063,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>15.6541458291898</v>
+        <v>21.99328500348302</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>17.89555415004024</v>
+        <v>13.44224762814054</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,22 +1077,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.49204526988545</v>
+        <v>24.88908544348344</v>
       </c>
       <c r="C18">
-        <v>10.86566894836814</v>
+        <v>18.31999807018404</v>
       </c>
       <c r="D18">
-        <v>4.137292365557045</v>
+        <v>4.585196580792895</v>
       </c>
       <c r="E18">
-        <v>11.7892615742552</v>
+        <v>13.12859248916443</v>
       </c>
       <c r="F18">
-        <v>20.3761670396912</v>
+        <v>18.61094204284563</v>
       </c>
       <c r="I18">
-        <v>16.74436441596619</v>
+        <v>9.170264435675985</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1104,13 +1104,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>15.56788195363548</v>
+        <v>21.72245515822159</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>17.90605910556112</v>
+        <v>13.36448628121217</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,22 +1118,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.43893289096704</v>
+        <v>24.78614407674898</v>
       </c>
       <c r="C19">
-        <v>10.82656422903277</v>
+        <v>18.24725060876071</v>
       </c>
       <c r="D19">
-        <v>4.132435853305035</v>
+        <v>4.572564883796431</v>
       </c>
       <c r="E19">
-        <v>11.78101713145296</v>
+        <v>13.06250566828824</v>
       </c>
       <c r="F19">
-        <v>20.37270057656994</v>
+        <v>18.55223400182555</v>
       </c>
       <c r="I19">
-        <v>16.75488835209151</v>
+        <v>9.188315614686395</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1145,13 +1145,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>15.53860633787331</v>
+        <v>21.63012923825059</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>17.90972968774737</v>
+        <v>13.33853486318541</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,22 +1159,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.67638463013784</v>
+        <v>25.24634061790059</v>
       </c>
       <c r="C20">
-        <v>11.00134286149211</v>
+        <v>18.57256590998184</v>
       </c>
       <c r="D20">
-        <v>4.154229025037042</v>
+        <v>4.629144084012812</v>
       </c>
       <c r="E20">
-        <v>11.81843457838207</v>
+        <v>13.35881376167795</v>
       </c>
       <c r="F20">
-        <v>20.38887598053883</v>
+        <v>18.81720334084068</v>
       </c>
       <c r="I20">
-        <v>16.70788525317048</v>
+        <v>9.108814605566195</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1186,13 +1186,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>15.67007825476686</v>
+        <v>22.04311209999508</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>17.89366402545276</v>
+        <v>13.45681912413956</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,22 +1200,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.44667197253522</v>
+        <v>26.73941284018417</v>
       </c>
       <c r="C21">
-        <v>11.56752610205544</v>
+        <v>19.62970425890487</v>
       </c>
       <c r="D21">
-        <v>4.226332363879147</v>
+        <v>4.814533918560791</v>
       </c>
       <c r="E21">
-        <v>11.94958984030691</v>
+        <v>14.33577330791646</v>
       </c>
       <c r="F21">
-        <v>20.4532802982669</v>
+        <v>19.72057501579508</v>
       </c>
       <c r="I21">
-        <v>16.5562016696355</v>
+        <v>8.874300448061073</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1227,13 +1227,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>16.10664516828393</v>
+        <v>23.38744515554819</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>17.84763602965585</v>
+        <v>13.88072185264409</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,22 +1241,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.92935687388675</v>
+        <v>27.67597962075952</v>
       </c>
       <c r="C22">
-        <v>11.92176558412559</v>
+        <v>20.29403090076042</v>
       </c>
       <c r="D22">
-        <v>4.272575763138382</v>
+        <v>4.932108649079029</v>
       </c>
       <c r="E22">
-        <v>12.03923133753445</v>
+        <v>14.96105869809662</v>
       </c>
       <c r="F22">
-        <v>20.50283434154344</v>
+        <v>20.3202491243612</v>
       </c>
       <c r="I22">
-        <v>16.4617364704722</v>
+        <v>8.748284599299899</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1268,13 +1268,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>16.38764722720544</v>
+        <v>24.23435683102265</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>17.82351885165479</v>
+        <v>14.17775461698742</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,22 +1282,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.67365003035578</v>
+        <v>27.17968286823338</v>
       </c>
       <c r="C23">
-        <v>11.73415234308487</v>
+        <v>19.94188657227447</v>
       </c>
       <c r="D23">
-        <v>4.247978253241791</v>
+        <v>4.869689639847271</v>
       </c>
       <c r="E23">
-        <v>11.99103751452025</v>
+        <v>14.62849623436094</v>
       </c>
       <c r="F23">
-        <v>20.47570619317558</v>
+        <v>19.99937147581141</v>
       </c>
       <c r="I23">
-        <v>16.51172595601765</v>
+        <v>8.812849076859392</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1309,13 +1309,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>16.23809566929809</v>
+        <v>23.78520737338341</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>17.83584245701244</v>
+        <v>14.01737930347141</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,22 +1323,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.66344777067229</v>
+        <v>25.22126951852539</v>
       </c>
       <c r="C24">
-        <v>10.99182373166206</v>
+        <v>18.55483646617679</v>
       </c>
       <c r="D24">
-        <v>4.153036335554735</v>
+        <v>4.626054513926628</v>
       </c>
       <c r="E24">
-        <v>11.81635901832842</v>
+        <v>13.34261339053179</v>
       </c>
       <c r="F24">
-        <v>20.38794979985137</v>
+        <v>18.80260170801007</v>
       </c>
       <c r="I24">
-        <v>16.71044300595869</v>
+        <v>9.113064937193704</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1350,13 +1350,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>15.66287660872992</v>
+        <v>22.0205969828835</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>17.89451646932068</v>
+        <v>13.45022459404554</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,22 +1364,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.48638658319317</v>
+        <v>22.93814918451888</v>
       </c>
       <c r="C25">
-        <v>10.12405879918552</v>
+        <v>16.94365099909853</v>
       </c>
       <c r="D25">
-        <v>4.047153096413001</v>
+        <v>4.348405611318671</v>
       </c>
       <c r="E25">
-        <v>11.64559573933182</v>
+        <v>12.06981148120321</v>
       </c>
       <c r="F25">
-        <v>20.32551366280235</v>
+        <v>17.55505430894893</v>
       </c>
       <c r="I25">
-        <v>16.94472447365861</v>
+        <v>9.535466320973363</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>15.02701620498745</v>
+        <v>19.97780554077212</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>17.98315233507081</v>
+        <v>12.92248679355978</v>
       </c>
     </row>
   </sheetData>
